--- a/DoAnMon/wwwroot/EXCEL/clsa1.xlsx
+++ b/DoAnMon/wwwroot/EXCEL/clsa1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tai lieu\1_Lap_Trinh_Web\Do_An\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tai_lieu\1_Do_An_Co_So\1-SP CK Final\DoAnMon\wwwroot\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF442B15-4838-47F5-904B-66B9AB3EF59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7FC154-5B60-4BCE-BF13-857B3840A898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>mssv</t>
   </si>
@@ -36,7 +36,10 @@
     <t>Nguyễn Xuân Huy</t>
   </si>
   <si>
-    <t>Nguyễn Hồng Vi</t>
+    <t>Nguyễn Tèo</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vi</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,18 +379,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2180601234</v>
+        <v>2180604321</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2180607571</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2180609157</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
